--- a/Data/variables.xlsx
+++ b/Data/variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="0" windowWidth="14400" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>종속변수</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>특정한 구의 정류소를 이용한 수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOLEAN: </t>
   </si>
   <si>
     <r>
@@ -120,12 +117,33 @@
   <si>
     <t xml:space="preserve">습도 </t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>Yes (1) /No (0)</t>
+  </si>
+  <si>
+    <t>풍속</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오존 </t>
+  </si>
+  <si>
+    <t>미세먼지</t>
+  </si>
+  <si>
+    <t>초미세먼지</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +174,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +197,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,18 +205,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,7 +554,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -563,124 +591,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
